--- a/template/template.xlsx
+++ b/template/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alepa\OneDrive\Escritorio\Preaching_program_authomatizer\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0005A2FB-4795-4D97-B51A-A8B98A712206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30DCFC6-2AE8-400F-A2C2-59E7AF53B3B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AAAEC884-701A-42E6-A6D4-4D77C6D46F6A}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>LUNES</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>MODO DE PREDICACION</t>
-  </si>
-  <si>
-    <t>PROGRAMA DE PREDICACION Y CONDUCTORES (DEL 08 AL 14 de SEPTIEMBRE)</t>
   </si>
   <si>
     <t>“Haz la obra de evangelizador, efectúa tu ministerio plenamente.”
@@ -308,6 +305,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -316,24 +331,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -652,7 +649,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="A3" sqref="A3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,32 +663,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="19"/>
+      <c r="A1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="22"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
+      <c r="A3" s="22" t="str">
+        <f>CONCATENATE("PROGRAMA DE PREDICACION Y CONDUCTORES (", Datos_Crudos!A13, ")")</f>
+        <v>PROGRAMA DE PREDICACION Y CONDUCTORES ()</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -714,7 +712,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="6" t="e">
@@ -739,7 +737,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="8" t="e">
         <f>VLOOKUP(2,  Datos_Crudos!A:G, 3, FALSE)</f>
         <v>#N/A</v>
@@ -795,7 +793,7 @@
       <c r="B9" s="3"/>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="20" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="6" t="e">
@@ -820,7 +818,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="8" t="e">
         <f>VLOOKUP(5,  Datos_Crudos!A:G, 3, FALSE)</f>
         <v>#N/A</v>
@@ -879,7 +877,7 @@
       <c r="F14" s="13"/>
     </row>
     <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="6" t="e">
@@ -904,7 +902,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="8" t="e">
         <f>VLOOKUP(8,  Datos_Crudos!A:G, 3, FALSE)</f>
         <v>#N/A</v>
